--- a/biology/Botanique/Anthrisque/Anthrisque.xlsx
+++ b/biology/Botanique/Anthrisque/Anthrisque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthriscus
 Les anthrisques (genre Anthriscus) comprennent une douzaine d'espèces de plantes herbacées annuelles, bisannuelles ou parfois vivaces de la famille des Apiaceae.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique anthriscum  désignait le cerfeuil sauvage, plante qui porte comme noms vernaculaires « cerfeuil d'âne », « ciguë blanche », en raison de sa ressemblance avec la grande et la petite ciguë[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique anthriscum  désignait le cerfeuil sauvage, plante qui porte comme noms vernaculaires « cerfeuil d'âne », « ciguë blanche », en raison de sa ressemblance avec la grande et la petite ciguë.
 </t>
         </is>
       </c>
@@ -545,13 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flore de France
-Anthriscus caucalis M.Bieb. - anthrisque commun
+          <t>Flore de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anthriscus caucalis M.Bieb. - anthrisque commun
 Anthriscus cerefolium (L.) Hoffm. - cerfeuil commun
 Anthriscus nitida (Wahlenb.) Hazsl. - cerfeuil lustré ou alpestre
-Anthriscus sylvestris (L.) Hoffm. - cerfeuil sauvage ou anthrisque sauvage
-Liste d'espèces
-Anthriscus africana Crochet. F. (Afrique)
+Anthriscus sylvestris (L.) Hoffm. - cerfeuil sauvage ou anthrisque sauvage</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthrisque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthrisque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthriscus africana Crochet. F. (Afrique)
 Anthriscus caucalis M. Bieb. - Cerfeuil à gros fruits (originaire d'Afrique et d'Eurasie, introduit ailleurs)
 Anthriscus cerefolium (L.) Hoffm. - Cerfeuil des jardins, persil français (originaire d'Eurasie, introduit ailleurs)
 Anthriscus fumarioides (Waldst. &amp; Kit.) Spreng. (Albanie, Grèce, Italie, Yougoslavie)
